--- a/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,64</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,04</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 0,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 3,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,53; 34,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 1,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 0,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,95; 31,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 1,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 1,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,08; 30,65</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5263,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>132,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5559,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>120,47%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5426,35%</t>
         </is>
       </c>
     </row>
@@ -796,49 +796,49 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-61,22; —</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1421,54; —</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1648,37; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,66; 602,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,61; 833,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2111,13; 21018,8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,99</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,68; 20,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,65; 0,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 0,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,1; 18,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 0,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,2; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,39; 17,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1698,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1259,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1438,44%</t>
         </is>
       </c>
     </row>
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>341,27; 8849,23</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,85; 177,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>471,08; 3736,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,14; 88,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,62; 99,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>690,96; 3212,22</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,4; 2,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,16; 24,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 2,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 12,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 1,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 14,18</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>550,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>207,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1818,05%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,72; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,78; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,5; 2939,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,69; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,47; 1078,29</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,24; 7303,91</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 1,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,48; 18,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 2,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,53; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,65; 22,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 1,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 1,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,42; 18,52</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1401,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2329,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>86,92%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,56%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1903,84%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,48; 459,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,11; 502,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>515,48; 5019,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,47; 931,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,54; 751,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>778,86; 9488,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,57; 361,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,95; 314,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>918,82; 4413,65</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,15; 19,76</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,2; 1,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 0,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,47; 17,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 0,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 0,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,51; 16,98</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2772,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1641,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,86%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2028,51%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,78; 232,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,34; 311,74</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1307,61; 5854,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,37; 211,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,7; 150,17</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>623,89; 3026,97</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,37; 148,54</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 143,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1083,92; 3177,73</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 0,9</t>
+          <t>-1,0; 0,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,02</t>
+          <t>-0,01; 2,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,53; 34,79</t>
+          <t>18,99; 34,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,88</t>
+          <t>-0,38; 1,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,61</t>
+          <t>-1,01; 0,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,95; 31,88</t>
+          <t>21,1; 32,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,1</t>
+          <t>-0,39; 1,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 1,52</t>
+          <t>-0,17; 1,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>21,08; 30,65</t>
+          <t>21,49; 30,5</t>
         </is>
       </c>
     </row>
@@ -796,17 +796,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-61,22; —</t>
+          <t>-57,6; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1421,54; —</t>
+          <t>1379,11; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1648,37; —</t>
+          <t>1373,24; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-57,66; 602,4</t>
+          <t>-61,26; 803,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 833,64</t>
+          <t>-38,99; 980,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2111,13; 21018,8</t>
+          <t>2041,08; 21183,17</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,62</t>
+          <t>-1,58; 0,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 0,56</t>
+          <t>-1,65; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,68; 20,37</t>
+          <t>8,32; 19,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 0,54</t>
+          <t>-1,93; 0,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,65</t>
+          <t>-1,66; 0,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,1; 18,49</t>
+          <t>10,75; 17,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,35</t>
+          <t>-1,16; 0,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 0,41</t>
+          <t>-1,19; 0,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 17,74</t>
+          <t>11,11; 17,49</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>341,27; 8849,23</t>
+          <t>430,37; 8631,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 178,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,85; 177,24</t>
+          <t>-83,65; 171,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>471,08; 3736,11</t>
+          <t>516,29; 3214,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-83,14; 88,87</t>
+          <t>-81,96; 62,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-79,62; 99,73</t>
+          <t>-80,84; 88,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>690,96; 3212,22</t>
+          <t>736,77; 3592,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,64</t>
+          <t>0,4; 2,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,16; 24,47</t>
+          <t>8,67; 23,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,85</t>
+          <t>-0,66; 1,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 2,09</t>
+          <t>-0,58; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 12,28</t>
+          <t>-0,0; 11,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,63</t>
+          <t>0,01; 1,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,42</t>
+          <t>-0,14; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 14,18</t>
+          <t>1,48; 13,95</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-72,78; —</t>
+          <t>-76,94; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2939,69</t>
+          <t>-19,89; 2756,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,69; —</t>
+          <t>-21,37; 1520,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,47; 1078,29</t>
+          <t>-54,83; 1124,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>224,24; 7303,91</t>
+          <t>235,23; 6363,1</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,63</t>
+          <t>-0,87; 1,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,59</t>
+          <t>-0,87; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,48; 18,23</t>
+          <t>7,54; 18,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 2,33</t>
+          <t>-0,08; 2,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,86</t>
+          <t>-0,57; 1,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 22,24</t>
+          <t>12,8; 22,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 1,68</t>
+          <t>-0,17; 1,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 1,29</t>
+          <t>-0,37; 1,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,42; 18,52</t>
+          <t>11,71; 18,51</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-76,48; 459,45</t>
+          <t>-78,63; 544,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,11; 502,23</t>
+          <t>-66,84; 409,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>515,48; 5019,7</t>
+          <t>469,16; 4453,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,47; 931,09</t>
+          <t>-33,03; 977,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 751,14</t>
+          <t>-58,27; 788,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>778,86; 9488,31</t>
+          <t>796,19; 9398,42</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,57; 361,93</t>
+          <t>-17,13; 370,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-35,95; 314,77</t>
+          <t>-41,36; 295,78</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>918,82; 4413,65</t>
+          <t>858,58; 3938,36</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,75</t>
+          <t>-0,38; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,91</t>
+          <t>-0,26; 0,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>13,15; 19,76</t>
+          <t>13,03; 19,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 1,02</t>
+          <t>-0,22; 0,95</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 0,79</t>
+          <t>-0,36; 0,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,47; 17,32</t>
+          <t>5,65; 17,39</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 0,71</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,67</t>
+          <t>-0,14; 0,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,51; 16,98</t>
+          <t>7,94; 17,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,78; 232,45</t>
+          <t>-48,43; 206,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 311,74</t>
+          <t>-36,19; 292,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1307,61; 5854,32</t>
+          <t>1334,07; 5507,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 211,14</t>
+          <t>-24,44; 198,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,7; 150,17</t>
+          <t>-36,66; 172,11</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>623,89; 3026,97</t>
+          <t>634,53; 2977,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 148,54</t>
+          <t>-18,57; 139,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 143,62</t>
+          <t>-16,43; 133,0</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1083,92; 3177,73</t>
+          <t>1052,54; 3156,47</t>
         </is>
       </c>
     </row>
